--- a/.development/Documentation/BinaryFiles/Abatab-RoadmapQueue.xlsx
+++ b/.development/Documentation/BinaryFiles/Abatab-RoadmapQueue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\GitHub\SHS\Abatab\.development\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\GitHub\SHS\Abatab\.development\Documentation\BinaryFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DC17D6-1AE7-4C34-8B6D-C1D970F2842F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7941AA-5270-4060-86BC-7DD77369A0F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30645" windowHeight="21000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="6450" yWindow="2850" windowWidth="38700" windowHeight="15315" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Core functionality" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>ITEM</t>
   </si>
@@ -278,6 +278,12 @@
   </si>
   <si>
     <t>MODULE</t>
+  </si>
+  <si>
+    <t>public/private/internal</t>
+  </si>
+  <si>
+    <t>Make sure all scopes are correct</t>
   </si>
 </sst>
 </file>
@@ -659,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1013,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216223ED-CE82-475A-92B4-85D2862B36A1}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -1069,6 +1075,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
